--- a/tables/Grille_presentation_projet_STI2D_V2015.xlsx
+++ b/tables/Grille_presentation_projet_STI2D_V2015.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28365" windowHeight="16335" tabRatio="500"/>
+    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="7575" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Poids de la compétence</t>
   </si>
@@ -207,6 +207,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ou</t>
     </r>
@@ -215,6 +216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> la réponse apportée par le système aux contraintes de préservation de la santé et du respect de la sécurité sont explicitées</t>
     </r>
@@ -238,7 +240,7 @@
     <t>L'analyse globale d'une chaine (énergie, action, information) est correctement réalisée</t>
   </si>
   <si>
-    <t>Grille 2014 version février</t>
+    <t>NOM Prénom</t>
   </si>
   <si>
     <t>Baccalauréat technologique "Sciences et Technologie Industrielles du Développement Durable"</t>
@@ -248,6 +250,9 @@
   </si>
   <si>
     <t>Soutenance Projet</t>
+  </si>
+  <si>
+    <t>Grille 2015</t>
   </si>
 </sst>
 </file>
@@ -257,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,6 +417,7 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -434,6 +440,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -458,6 +465,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -470,24 +478,40 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -950,7 +974,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1035,22 +1059,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1064,10 +1076,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1076,10 +1084,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1087,10 +1091,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,10 +1100,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1117,9 +1113,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="30" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,19 +1172,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1199,201 +1180,276 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1419,6 +1475,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1437,9 +1498,9 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$N$5:$N$7</c:f>
+              <c:f>Feuil1!$Q$5:$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1454,25 +1515,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59563008"/>
-        <c:axId val="88806144"/>
+        <c:dLbls/>
+        <c:axId val="104157184"/>
+        <c:axId val="104158720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59563008"/>
+        <c:axId val="104157184"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88806144"/>
+        <c:crossAx val="104158720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88806144"/>
+        <c:axId val="104158720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1480,10 +1542,10 @@
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="59563008"/>
+        <c:crossAx val="104157184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1499,7 +1561,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1520,9 +1582,9 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$N$9:$N$13</c:f>
+              <c:f>Feuil1!$Q$9:$Q$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1543,25 +1605,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88817024"/>
-        <c:axId val="88831104"/>
+        <c:dLbls/>
+        <c:axId val="104178432"/>
+        <c:axId val="104179968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88817024"/>
+        <c:axId val="104178432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88831104"/>
+        <c:crossAx val="104179968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88831104"/>
+        <c:axId val="104179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1569,10 +1632,10 @@
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88817024"/>
+        <c:crossAx val="104178432"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1588,7 +1651,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1609,9 +1672,9 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$N$15:$N$18</c:f>
+              <c:f>Feuil1!$Q$15:$Q$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1629,25 +1692,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88846336"/>
-        <c:axId val="88847872"/>
+        <c:dLbls/>
+        <c:axId val="104199680"/>
+        <c:axId val="104201216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88846336"/>
+        <c:axId val="104199680"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88847872"/>
+        <c:crossAx val="104201216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88847872"/>
+        <c:axId val="104201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1655,10 +1719,10 @@
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88846336"/>
+        <c:crossAx val="104199680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1674,7 +1738,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1695,9 +1759,9 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$N$20:$N$21</c:f>
+              <c:f>Feuil1!$Q$20:$Q$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1709,25 +1773,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92746112"/>
-        <c:axId val="92747648"/>
+        <c:dLbls/>
+        <c:axId val="104499456"/>
+        <c:axId val="104501248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92746112"/>
+        <c:axId val="104499456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92747648"/>
+        <c:crossAx val="104501248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92747648"/>
+        <c:axId val="104501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1735,10 +1800,10 @@
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92746112"/>
+        <c:crossAx val="104499456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1754,7 +1819,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1764,8 +1829,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>360680</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
@@ -1795,7 +1860,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1827,15 +1892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>199389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1859,7 +1924,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
@@ -2218,8 +2283,8 @@
   </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75"/>
@@ -2233,49 +2298,49 @@
     <col min="10" max="10" width="4.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="18" style="9" customWidth="1"/>
     <col min="12" max="12" width="8.625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="50" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="11"/>
     <col min="16" max="26" width="11.5" style="10"/>
     <col min="27" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:26" s="53" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="52"/>
+      <c r="D1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="113"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="J2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="67"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="J2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="59"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -2290,10 +2355,10 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2310,7 +2375,7 @@
       <c r="H3" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="27" t="s">
@@ -2330,23 +2395,23 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="53">
+      <c r="J4" s="46">
         <v>0.2</v>
       </c>
-      <c r="L4" s="55" t="e">
-        <f>SUMPRODUCT(L5:L7,M5:M7)/SUMPRODUCT(J5:J7,M5:M7)</f>
-        <v>#DIV/0!</v>
+      <c r="L4" s="47">
+        <f>SUM(L5:L7)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2362,42 +2427,48 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="16" t="str">
-        <f>(IF(M5&lt;&gt;1,"◄",""))</f>
+        <f>(IF(P5&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
       </c>
-      <c r="J5" s="54">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="56">
-        <f>(IF(F5&lt;&gt;"",1/3,0)+IF(G5&lt;&gt;"",2/3,0)+IF(H5&lt;&gt;"",1,0))*J5*J$4*20</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="57">
-        <f>IF(E5&lt;&gt;"",1,0)+IF(F5&lt;&gt;"",1,0)+IF(G5&lt;&gt;"",1,0)+IF(H5&lt;&gt;"",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="58">
-        <f>IF(E5&lt;&gt;"",0.02,(L5/(J5*J$4*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="J5" s="68">
+        <v>1</v>
+      </c>
+      <c r="L5" s="135">
+        <f>SUM(N5:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="71">
+        <f>(IF(F5&lt;&gt;"",1/3,0)+IF(G5&lt;&gt;"",2/3,0)+IF(H5&lt;&gt;"",1,0))*J$4*20*M5/SUM(M$5:M$7)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71">
+        <f>COUNTA(E5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71">
+        <f t="shared" ref="Q5:Q7" si="0">(IF(F5&lt;&gt;"",1/3,0)+IF(G5&lt;&gt;"",2/3,0)+IF(H5&lt;&gt;"",1,0))*J5</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -2409,38 +2480,41 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="16" t="str">
-        <f t="shared" ref="I6:I7" si="0">(IF(M6&lt;&gt;1,"◄",""))</f>
+        <f t="shared" ref="I6:I21" si="1">(IF(P6&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
       </c>
-      <c r="J6" s="54">
-        <v>0.35</v>
-      </c>
-      <c r="L6" s="56">
-        <f>(IF(F6&lt;&gt;"",1/3,0)+IF(G6&lt;&gt;"",2/3,0)+IF(H6&lt;&gt;"",1,0))*J6*J$4*20</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="57">
-        <f>IF(D6="",IF(E6&lt;&gt;"",1,0)+IF(F6&lt;&gt;"",1,0)+IF(G6&lt;&gt;"",1,0)+IF(H6&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="58">
-        <f t="shared" ref="N6:N7" si="1">IF(E6&lt;&gt;"",0.02,(L6/(J6*J$4*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="J6" s="68">
+        <v>1</v>
+      </c>
+      <c r="L6" s="136"/>
+      <c r="M6" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="71">
+        <f>(IF(F6&lt;&gt;"",1/3,0)+IF(G6&lt;&gt;"",2/3,0)+IF(H6&lt;&gt;"",1,0))*J$4*20*M6/SUM(M$5:M$7)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71">
+        <f t="shared" ref="P6:P21" si="2">COUNTA(E6:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -2452,42 +2526,48 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1</v>
+      </c>
+      <c r="L7" s="48">
+        <f>SUM(N7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="71">
+        <f t="shared" ref="N7" si="3">(IF(F7&lt;&gt;"",1/3,0)+IF(G7&lt;&gt;"",2/3,0)+IF(H7&lt;&gt;"",1,0))*J$4*20*M7/SUM(M$5:M$7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71">
         <f t="shared" si="0"/>
-        <v>◄</v>
-      </c>
-      <c r="J7" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="L7" s="56">
-        <f>(IF(F7&lt;&gt;"",1/3,0)+IF(G7&lt;&gt;"",2/3,0)+IF(H7&lt;&gt;"",1,0))*J7*J$4*20</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="57">
-        <f>IF(D7="",IF(E7&lt;&gt;"",1,0)+IF(F7&lt;&gt;"",1,0)+IF(G7&lt;&gt;"",1,0)+IF(H7&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -2499,27 +2579,29 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="53">
+      <c r="J8" s="46">
         <v>0.15</v>
       </c>
-      <c r="L8" s="55" t="e">
-        <f>SUMPRODUCT(L9:L13,M9:M13)/SUMPRODUCT(J9:J13,M9:M13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="L8" s="47">
+        <f>SUM(L9:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -2531,42 +2613,48 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="16" t="str">
-        <f>(IF(M9&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J9" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="56">
-        <f>(IF(F9&lt;&gt;"",1/3,0)+IF(G9&lt;&gt;"",2/3,0)+IF(H9&lt;&gt;"",1,0))*J9*J$8*20</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="57">
-        <f>IF(D9="",IF(E9&lt;&gt;"",1,0)+IF(F9&lt;&gt;"",1,0)+IF(G9&lt;&gt;"",1,0)+IF(H9&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="58">
-        <f>IF(E9&lt;&gt;"",0.02,(L9/(J9*J$8*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="J9" s="68">
+        <v>1</v>
+      </c>
+      <c r="L9" s="135">
+        <f>SUM(N9:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="71">
+        <f>(IF(F9&lt;&gt;"",1/3,0)+IF(G9&lt;&gt;"",2/3,0)+IF(H9&lt;&gt;"",1,0))*J$8*20*M9/SUM(M$9:M$13)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="71">
+        <f>(IF(F9&lt;&gt;"",1/3,0)+IF(G9&lt;&gt;"",2/3,0)+IF(H9&lt;&gt;"",1,0))*J9</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2578,38 +2666,41 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="16" t="str">
-        <f t="shared" ref="I10:I13" si="2">(IF(M10&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J10" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="56">
-        <f>(IF(F10&lt;&gt;"",1/3,0)+IF(G10&lt;&gt;"",2/3,0)+IF(H10&lt;&gt;"",1,0))*J10*J$8*20</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="57">
-        <f>IF(D10="",IF(E10&lt;&gt;"",1,0)+IF(F10&lt;&gt;"",1,0)+IF(G10&lt;&gt;"",1,0)+IF(H10&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="58">
-        <f t="shared" ref="N10:N13" si="3">IF(E10&lt;&gt;"",0.02,(L10/(J10*J$8*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="J10" s="68">
+        <v>1</v>
+      </c>
+      <c r="L10" s="137"/>
+      <c r="M10" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="71">
+        <f>(IF(F10&lt;&gt;"",1/3,0)+IF(G10&lt;&gt;"",2/3,0)+IF(H10&lt;&gt;"",1,0))*J$8*20*M10/SUM(M$9:M$13)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71">
+        <f t="shared" ref="Q10:Q21" si="4">(IF(F10&lt;&gt;"",1/3,0)+IF(G10&lt;&gt;"",2/3,0)+IF(H10&lt;&gt;"",1,0))*J10</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2621,38 +2712,41 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="74"/>
       <c r="I11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J11" s="68">
+        <v>1</v>
+      </c>
+      <c r="L11" s="136"/>
+      <c r="M11" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="71">
+        <f t="shared" ref="N11:N12" si="5">(IF(F11&lt;&gt;"",1/3,0)+IF(G11&lt;&gt;"",2/3,0)+IF(H11&lt;&gt;"",1,0))*J$8*20*M11/SUM(M$9:M$13)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71">
         <f t="shared" si="2"/>
-        <v>◄</v>
-      </c>
-      <c r="J11" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="56">
-        <f>(IF(F11&lt;&gt;"",1/3,0)+IF(G11&lt;&gt;"",2/3,0)+IF(H11&lt;&gt;"",1,0))*J11*J$8*20</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="57">
-        <f>IF(D11="",IF(E11&lt;&gt;"",1,0)+IF(F11&lt;&gt;"",1,0)+IF(G11&lt;&gt;"",1,0)+IF(H11&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2664,42 +2758,48 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J12" s="68">
+        <v>1</v>
+      </c>
+      <c r="L12" s="135">
+        <f>SUM(N12:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71">
         <f t="shared" si="2"/>
-        <v>◄</v>
-      </c>
-      <c r="J12" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="56">
-        <f>(IF(F12&lt;&gt;"",1/3,0)+IF(G12&lt;&gt;"",2/3,0)+IF(H12&lt;&gt;"",1,0))*J12*J$8*20</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="57">
-        <f>IF(D12="",IF(E12&lt;&gt;"",1,0)+IF(F12&lt;&gt;"",1,0)+IF(G12&lt;&gt;"",1,0)+IF(H12&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2711,38 +2811,41 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="116"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="107"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J13" s="68">
+        <v>1</v>
+      </c>
+      <c r="L13" s="136"/>
+      <c r="M13" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="71">
+        <f>(IF(F13&lt;&gt;"",1/3,0)+IF(G13&lt;&gt;"",2/3,0)+IF(H13&lt;&gt;"",1,0))*J$8*20*M13/SUM(M$9:M$13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71">
         <f t="shared" si="2"/>
-        <v>◄</v>
-      </c>
-      <c r="J13" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="56">
-        <f>(IF(F13&lt;&gt;"",1/3,0)+IF(G13&lt;&gt;"",2/3,0)+IF(H13&lt;&gt;"",1,0))*J13*J$8*20</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="57">
-        <f>IF(D13="",IF(E13&lt;&gt;"",1,0)+IF(F13&lt;&gt;"",1,0)+IF(G13&lt;&gt;"",1,0)+IF(H13&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2754,27 +2857,29 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="53">
+      <c r="J14" s="46">
         <v>0.45</v>
       </c>
-      <c r="L14" s="55" t="e">
-        <f>SUMPRODUCT(L15:L18,M15:M18)/SUMPRODUCT(J15:J18,M15:M18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="L14" s="47">
+        <f>SUM(L15:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2786,42 +2891,48 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="16" t="str">
-        <f>(IF(M15&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J15" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="L15" s="56">
-        <f>(IF(F15&lt;&gt;"",1/3,0)+IF(G15&lt;&gt;"",2/3,0)+IF(H15&lt;&gt;"",1,0))*J15*J$14*20</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="57">
-        <f>IF(D15="",IF(E15&lt;&gt;"",1,0)+IF(F15&lt;&gt;"",1,0)+IF(G15&lt;&gt;"",1,0)+IF(H15&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="58">
-        <f>IF(E15&lt;&gt;"",0.02,(L15/(J15*J$14*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="J15" s="68">
+        <v>1</v>
+      </c>
+      <c r="L15" s="48">
+        <f>SUM(N15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="71">
+        <f>(IF(F15&lt;&gt;"",1/3,0)+IF(G15&lt;&gt;"",2/3,0)+IF(H15&lt;&gt;"",1,0))*J$14*20*M15/SUM(M$15:M$18)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2833,42 +2944,48 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="27" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="16" t="str">
-        <f t="shared" ref="I16:I18" si="4">(IF(M16&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J16" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="L16" s="56">
-        <f>(IF(F16&lt;&gt;"",1/3,0)+IF(G16&lt;&gt;"",2/3,0)+IF(H16&lt;&gt;"",1,0))*J16*J$14*20</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="57">
-        <f>IF(D16="",IF(E16&lt;&gt;"",1,0)+IF(F16&lt;&gt;"",1,0)+IF(G16&lt;&gt;"",1,0)+IF(H16&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="58">
-        <f t="shared" ref="N16:N18" si="5">IF(E16&lt;&gt;"",0.02,(L16/(J16*J$14*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="J16" s="68">
+        <v>1</v>
+      </c>
+      <c r="L16" s="48">
+        <f>SUM(N16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="71">
+        <f t="shared" ref="N16:N17" si="6">(IF(F16&lt;&gt;"",1/3,0)+IF(G16&lt;&gt;"",2/3,0)+IF(H16&lt;&gt;"",1,0))*J$14*20*M16/SUM(M$15:M$18)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2880,42 +2997,48 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18.95" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J17" s="68">
+        <v>1</v>
+      </c>
+      <c r="L17" s="135">
+        <f>SUM(N17:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="71">
         <f t="shared" si="4"/>
-        <v>◄</v>
-      </c>
-      <c r="J17" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="L17" s="56">
-        <f>(IF(F17&lt;&gt;"",1/3,0)+IF(G17&lt;&gt;"",2/3,0)+IF(H17&lt;&gt;"",1,0))*J17*J$14*20</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="57">
-        <f>IF(D17="",IF(E17&lt;&gt;"",1,0)+IF(F17&lt;&gt;"",1,0)+IF(G17&lt;&gt;"",1,0)+IF(H17&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2927,38 +3050,41 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="116"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="107"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>◄</v>
+      </c>
+      <c r="J18" s="68">
+        <v>1</v>
+      </c>
+      <c r="L18" s="136"/>
+      <c r="M18" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="71">
+        <f>(IF(F18&lt;&gt;"",1/3,0)+IF(G18&lt;&gt;"",2/3,0)+IF(H18&lt;&gt;"",1,0))*J$14*20*M18/SUM(M$15:M$18)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="71">
         <f t="shared" si="4"/>
-        <v>◄</v>
-      </c>
-      <c r="J18" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="L18" s="56">
-        <f>(IF(F18&lt;&gt;"",1/3,0)+IF(G18&lt;&gt;"",2/3,0)+IF(H18&lt;&gt;"",1,0))*J18*J$14*20</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="57">
-        <f>IF(D18="",IF(E18&lt;&gt;"",1,0)+IF(F18&lt;&gt;"",1,0)+IF(G18&lt;&gt;"",1,0)+IF(H18&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2970,27 +3096,29 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="53">
+      <c r="J19" s="46">
         <v>0.2</v>
       </c>
-      <c r="L19" s="55" t="e">
-        <f>SUMPRODUCT(L20:L21,M20:M21)/SUMPRODUCT(J20:J21,M20:M21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="L19" s="47">
+        <f>SUM(L20:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3002,42 +3130,48 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="25.5">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="105" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="48"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="16" t="str">
-        <f>(IF(M20&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J20" s="54">
-        <v>0.6</v>
-      </c>
-      <c r="L20" s="56">
-        <f>(IF(F20&lt;&gt;"",1/3,0)+IF(G20&lt;&gt;"",2/3,0)+IF(H20&lt;&gt;"",1,0))*J20*J$19*20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="57">
-        <f>IF(D20="",IF(E20&lt;&gt;"",1,0)+IF(F20&lt;&gt;"",1,0)+IF(G20&lt;&gt;"",1,0)+IF(H20&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="58">
-        <f>IF(E20&lt;&gt;"",0.02,(L20/(J20*J$19*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="J20" s="68">
+        <v>1</v>
+      </c>
+      <c r="L20" s="48">
+        <f>SUM(N20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="71">
+        <f>(IF(F20&lt;&gt;"",1/3,0)+IF(G20&lt;&gt;"",2/3,0)+IF(H20&lt;&gt;"",1,0))*J$19*20*M20/SUM(M$20:M$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3049,38 +3183,44 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="39"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="16" t="str">
-        <f>(IF(M21&lt;&gt;1,"◄",""))</f>
+        <f t="shared" si="1"/>
         <v>◄</v>
       </c>
-      <c r="J21" s="54">
-        <v>0.4</v>
-      </c>
-      <c r="L21" s="56">
-        <f>(IF(F21&lt;&gt;"",1/3,0)+IF(G21&lt;&gt;"",2/3,0)+IF(H21&lt;&gt;"",1,0))*J21*J$19*20</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="57">
-        <f>IF(D21="",IF(E21&lt;&gt;"",1,0)+IF(F21&lt;&gt;"",1,0)+IF(G21&lt;&gt;"",1,0)+IF(H21&lt;&gt;"",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="58">
-        <f>IF(E21&lt;&gt;"",0.02,(L21/(J21*J$19*20)))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="J21" s="68">
+        <v>1</v>
+      </c>
+      <c r="L21" s="48">
+        <f>SUM(N21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="71">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="71">
+        <f>(IF(F21&lt;&gt;"",1/3,0)+IF(G21&lt;&gt;"",2/3,0)+IF(H21&lt;&gt;"",1,0))*J$19*20*M21/SUM(M$20:M$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3093,17 +3233,17 @@
     </row>
     <row r="22" spans="1:26">
       <c r="C22" s="17"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="J22" s="19">
         <f>J4+J8+J19+J14</f>
         <v>1</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="49">
         <f>IF(SUM(M5:M21)&lt;&gt;14,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3122,15 +3262,15 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="92" t="str">
+      <c r="E23" s="114">
         <f>IF(M22&lt;&gt;1,"",L4+L8+L14+L19)</f>
-        <v/>
-      </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="20"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3149,14 +3289,16 @@
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110" t="s">
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="111"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
+      <c r="H24" s="142"/>
+      <c r="K24" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="126"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -3174,18 +3316,18 @@
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="112">
+      <c r="E25" s="143">
         <f>E24*6</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114">
+      <c r="F25" s="144"/>
+      <c r="G25" s="145">
         <v>120</v>
       </c>
-      <c r="H25" s="115"/>
+      <c r="H25" s="146"/>
       <c r="I25" s="16"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="133"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -3200,14 +3342,14 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3222,16 +3364,16 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
       <c r="I27" s="21" t="s">
         <v>23</v>
       </c>
@@ -3249,18 +3391,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134"/>
       <c r="I28" s="22"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3276,14 +3418,14 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="27.95" customHeight="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="125"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="23"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3299,19 +3441,19 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="125"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="23"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="28"/>
-      <c r="N30" s="57"/>
+      <c r="N30" s="49"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3326,21 +3468,21 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="126"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="109"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="88" t="s">
+      <c r="K31" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="89"/>
-      <c r="N31" s="57"/>
+      <c r="L31" s="111"/>
+      <c r="N31" s="49"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3366,7 +3508,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="28"/>
-      <c r="N32" s="57"/>
+      <c r="N32" s="49"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3392,7 +3534,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="28"/>
-      <c r="N33" s="57"/>
+      <c r="N33" s="49"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3418,7 +3560,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="28"/>
-      <c r="N34" s="57"/>
+      <c r="N34" s="49"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3444,7 +3586,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="28"/>
-      <c r="N35" s="57"/>
+      <c r="N35" s="49"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3470,7 +3612,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="28"/>
-      <c r="N36" s="57"/>
+      <c r="N36" s="49"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -3489,7 +3631,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="28"/>
-      <c r="N38" s="57"/>
+      <c r="N38" s="49"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3504,17 +3646,18 @@
       <c r="Z38" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="38">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="42">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
@@ -3527,23 +3670,25 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D15:D18"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C29:H31"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/Grille_presentation_projet_STI2D_V2015.xlsx
+++ b/tables/Grille_presentation_projet_STI2D_V2015.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="7575" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12165" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1276,6 +1276,129 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,34 +1420,15 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,72 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,44 +1443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,26 +1515,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="104157184"/>
-        <c:axId val="104158720"/>
+        <c:axId val="90128384"/>
+        <c:axId val="90129920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104157184"/>
+        <c:axId val="90128384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104158720"/>
+        <c:crossAx val="90129920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104158720"/>
+        <c:axId val="90129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1545,7 +1544,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104157184"/>
+        <c:crossAx val="90128384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1561,7 +1560,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1605,26 +1604,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="104178432"/>
-        <c:axId val="104179968"/>
+        <c:axId val="90149632"/>
+        <c:axId val="90151168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104178432"/>
+        <c:axId val="90149632"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104179968"/>
+        <c:crossAx val="90151168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104179968"/>
+        <c:axId val="90151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1635,7 +1633,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104178432"/>
+        <c:crossAx val="90149632"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1651,7 +1649,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1692,26 +1690,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="104199680"/>
-        <c:axId val="104201216"/>
+        <c:axId val="90170880"/>
+        <c:axId val="90172416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104199680"/>
+        <c:axId val="90170880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104201216"/>
+        <c:crossAx val="90172416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104201216"/>
+        <c:axId val="90172416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1722,7 +1719,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104199680"/>
+        <c:crossAx val="90170880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1738,7 +1735,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1773,26 +1770,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="104499456"/>
-        <c:axId val="104501248"/>
+        <c:axId val="94267648"/>
+        <c:axId val="94273536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104499456"/>
+        <c:axId val="94267648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104501248"/>
+        <c:crossAx val="94273536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104501248"/>
+        <c:axId val="94273536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1803,7 +1799,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104499456"/>
+        <c:crossAx val="94267648"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1819,7 +1815,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2283,8 +2279,8 @@
   </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75"/>
@@ -2321,10 +2317,10 @@
       <c r="H1" s="26"/>
       <c r="I1" s="56"/>
       <c r="J1" s="57"/>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="113"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="60"/>
       <c r="N1" s="61"/>
     </row>
@@ -2332,11 +2328,11 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="J2" s="58" t="s">
         <v>0</v>
       </c>
@@ -2355,10 +2351,10 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2395,16 +2391,16 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="16"/>
       <c r="J4" s="46">
         <v>0.2</v>
@@ -2430,13 +2426,13 @@
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="121" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -2448,7 +2444,7 @@
       <c r="J5" s="68">
         <v>1</v>
       </c>
-      <c r="L5" s="135">
+      <c r="L5" s="92">
         <f>SUM(N5:N6)</f>
         <v>0</v>
       </c>
@@ -2481,11 +2477,11 @@
     </row>
     <row r="6" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="31"/>
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
@@ -2497,7 +2493,7 @@
       <c r="J6" s="68">
         <v>1</v>
       </c>
-      <c r="L6" s="136"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="71">
         <f>1</f>
         <v>1</v>
@@ -2535,7 +2531,7 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="101"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -2579,16 +2575,16 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="16"/>
       <c r="J8" s="46">
         <v>0.15</v>
@@ -2622,7 +2618,7 @@
       <c r="C9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="34"/>
       <c r="F9" s="83"/>
       <c r="G9" s="80"/>
@@ -2634,7 +2630,7 @@
       <c r="J9" s="68">
         <v>1</v>
       </c>
-      <c r="L9" s="135">
+      <c r="L9" s="92">
         <f>SUM(N9:N11)</f>
         <v>0</v>
       </c>
@@ -2671,7 +2667,7 @@
       <c r="C10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="64"/>
       <c r="F10" s="84"/>
       <c r="G10" s="90"/>
@@ -2683,7 +2679,7 @@
       <c r="J10" s="68">
         <v>1</v>
       </c>
-      <c r="L10" s="137"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="71">
         <f>1</f>
         <v>1</v>
@@ -2717,7 +2713,7 @@
       <c r="C11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="66"/>
       <c r="F11" s="85"/>
       <c r="G11" s="91"/>
@@ -2729,7 +2725,7 @@
       <c r="J11" s="68">
         <v>1</v>
       </c>
-      <c r="L11" s="136"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="71">
         <f>1</f>
         <v>1</v>
@@ -2761,13 +2757,13 @@
       <c r="A12" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="121" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="36"/>
       <c r="F12" s="86"/>
       <c r="G12" s="86"/>
@@ -2779,7 +2775,7 @@
       <c r="J12" s="68">
         <v>1</v>
       </c>
-      <c r="L12" s="135">
+      <c r="L12" s="92">
         <f>SUM(N12:N13)</f>
         <v>0</v>
       </c>
@@ -2811,12 +2807,12 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="38"/>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -2828,7 +2824,7 @@
       <c r="J13" s="68">
         <v>1</v>
       </c>
-      <c r="L13" s="136"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="71">
         <f>1</f>
         <v>1</v>
@@ -2857,16 +2853,16 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
       <c r="I14" s="16"/>
       <c r="J14" s="46">
         <v>0.45</v>
@@ -2900,7 +2896,7 @@
       <c r="C15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="36"/>
       <c r="F15" s="86"/>
       <c r="G15" s="86"/>
@@ -2953,7 +2949,7 @@
       <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="34"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -3000,13 +2996,13 @@
       <c r="A17" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="121" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="101"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="65"/>
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
@@ -3018,7 +3014,7 @@
       <c r="J17" s="68">
         <v>1</v>
       </c>
-      <c r="L17" s="135">
+      <c r="L17" s="92">
         <f>SUM(N17:N18)</f>
         <v>0</v>
       </c>
@@ -3050,12 +3046,12 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="67"/>
       <c r="F18" s="89"/>
       <c r="G18" s="89"/>
@@ -3067,7 +3063,7 @@
       <c r="J18" s="68">
         <v>1</v>
       </c>
-      <c r="L18" s="136"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="71">
         <f>1</f>
         <v>1</v>
@@ -3096,16 +3092,16 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
       <c r="I19" s="16"/>
       <c r="J19" s="46">
         <v>0.2</v>
@@ -3133,13 +3129,13 @@
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="121" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="36"/>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
@@ -3149,7 +3145,7 @@
         <v>◄</v>
       </c>
       <c r="J20" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="48">
         <f>SUM(N20)</f>
@@ -3184,11 +3180,11 @@
     </row>
     <row r="21" spans="1:26" ht="14.1" customHeight="1">
       <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="101"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="34"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -3233,10 +3229,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="C22" s="17"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
       <c r="J22" s="19">
         <f>J4+J8+J19+J14</f>
         <v>1</v>
@@ -3262,15 +3258,15 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="110">
         <f>IF(M22&lt;&gt;1,"",L4+L8+L14+L19)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115" t="s">
+      <c r="F23" s="110"/>
+      <c r="G23" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="115"/>
+      <c r="H23" s="111"/>
       <c r="I23" s="20"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3289,12 +3285,12 @@
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="142"/>
+      <c r="H24" s="99"/>
       <c r="K24" s="125" t="s">
         <v>49</v>
       </c>
@@ -3316,15 +3312,15 @@
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="143">
+      <c r="E25" s="100">
         <f>E24*6</f>
         <v>0</v>
       </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145">
+      <c r="F25" s="101"/>
+      <c r="G25" s="102">
         <v>120</v>
       </c>
-      <c r="H25" s="146"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="16"/>
       <c r="K25" s="127"/>
       <c r="L25" s="128"/>
@@ -3342,14 +3338,14 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3395,14 +3391,14 @@
         <v>46</v>
       </c>
       <c r="B28" s="130"/>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="22"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3418,14 +3414,14 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="27.95" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="108"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="142"/>
       <c r="I29" s="23"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3441,14 +3437,14 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="108"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="142"/>
       <c r="I30" s="23"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3468,20 +3464,20 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="109"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="143"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="110" t="s">
+      <c r="K31" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="111"/>
+      <c r="L31" s="107"/>
       <c r="N31" s="49"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3647,16 +3643,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C29:H31"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E23:F23"/>
@@ -3673,22 +3675,16 @@
     <mergeCell ref="K24:L25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C29:H31"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
